--- a/results/Accuracies.xlsx
+++ b/results/Accuracies.xlsx
@@ -10,6 +10,7 @@
     <sheet name="COLOGNE SCALE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -334,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +347,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -488,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -497,7 +513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -510,6 +525,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,11 +537,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,7 +872,7 @@
       <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -880,7 +898,7 @@
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
         <v>10</v>
       </c>
     </row>
@@ -906,7 +924,7 @@
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="27" t="s">
         <v>11</v>
       </c>
     </row>
@@ -942,31 +960,31 @@
       <c r="G7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -981,16 +999,16 @@
       <c r="D9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -998,16 +1016,16 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
@@ -1035,7 +1053,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1047,13 +1065,13 @@
       <c r="C15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="11"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1065,13 +1083,13 @@
       <c r="C16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
@@ -1099,25 +1117,25 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="11"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -1129,13 +1147,13 @@
       <c r="C21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="25" t="s">
         <v>93</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="12"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1143,16 +1161,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
@@ -1184,7 +1202,7 @@
       <c r="G26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1205,10 +1223,10 @@
       <c r="F27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1229,10 +1247,10 @@
       <c r="F28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1266,31 +1284,31 @@
       <c r="G31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18" t="s">
+      <c r="E32" s="17"/>
+      <c r="F32" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1307,28 +1325,28 @@
       <c r="D33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9" t="s">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
         <v>72</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
@@ -1360,7 +1378,7 @@
       <c r="G38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1377,14 +1395,14 @@
       <c r="D39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15" t="s">
+      <c r="E39" s="14"/>
+      <c r="F39" s="14" t="s">
         <v>51</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1401,14 +1419,14 @@
       <c r="D40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9" t="s">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1442,31 +1460,31 @@
       <c r="G43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18" t="s">
+      <c r="E44" s="17"/>
+      <c r="F44" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1477,7 +1495,7 @@
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -1490,7 +1508,7 @@
       <c r="G45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="11" t="s">
         <v>29</v>
       </c>
     </row>

--- a/results/Accuracies.xlsx
+++ b/results/Accuracies.xlsx
@@ -525,6 +525,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,11 +542,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,7 +825,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,16 +841,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -898,7 +898,7 @@
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="22" t="s">
         <v>10</v>
       </c>
     </row>
@@ -924,21 +924,21 @@
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -1016,28 +1016,28 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -1092,16 +1092,16 @@
       <c r="H16" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -1129,7 +1129,7 @@
       <c r="C20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="20" t="s">
         <v>92</v>
       </c>
       <c r="E20" s="17"/>
@@ -1147,7 +1147,7 @@
       <c r="C21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="21" t="s">
         <v>93</v>
       </c>
       <c r="E21" s="2"/>
@@ -1161,28 +1161,28 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
@@ -1195,10 +1195,10 @@
       <c r="D26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
         <v>8</v>
       </c>
@@ -1219,11 +1219,11 @@
       <c r="D27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="F27" s="7"/>
+      <c r="G27" s="24" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="10" t="s">
@@ -1243,11 +1243,11 @@
       <c r="D28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="21" t="s">
         <v>62</v>
       </c>
       <c r="H28" s="11" t="s">
@@ -1255,16 +1255,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -1277,10 +1277,10 @@
       <c r="D31" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
         <v>8</v>
       </c>
@@ -1301,10 +1301,10 @@
       <c r="D32" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17" t="s">
+      <c r="E32" s="17" t="s">
         <v>71</v>
       </c>
+      <c r="F32" s="17"/>
       <c r="G32" s="19" t="s">
         <v>73</v>
       </c>
@@ -1325,10 +1325,10 @@
       <c r="D33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>72</v>
       </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="2" t="s">
         <v>74</v>
       </c>
@@ -1337,28 +1337,28 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="23"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
@@ -1371,10 +1371,10 @@
       <c r="D38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="F38" s="6"/>
       <c r="G38" s="6" t="s">
         <v>8</v>
       </c>
@@ -1395,10 +1395,10 @@
       <c r="D39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14" t="s">
+      <c r="E39" s="14" t="s">
         <v>51</v>
       </c>
+      <c r="F39" s="14"/>
       <c r="G39" s="1" t="s">
         <v>52</v>
       </c>
@@ -1419,10 +1419,10 @@
       <c r="D40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
+      <c r="E40" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="F40" s="8"/>
       <c r="G40" s="2" t="s">
         <v>48</v>
       </c>
@@ -1431,16 +1431,16 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
@@ -1453,10 +1453,10 @@
       <c r="D43" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
         <v>8</v>
       </c>
@@ -1477,10 +1477,10 @@
       <c r="D44" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17" t="s">
+      <c r="E44" s="17" t="s">
         <v>36</v>
       </c>
+      <c r="F44" s="17"/>
       <c r="G44" s="17" t="s">
         <v>37</v>
       </c>
@@ -1501,10 +1501,10 @@
       <c r="D45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
         <v>33</v>
       </c>

--- a/results/Accuracies.xlsx
+++ b/results/Accuracies.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="COLOGNE SCALE" sheetId="1" r:id="rId1"/>
+    <sheet name="COLOGNE SHAPE" sheetId="4" r:id="rId2"/>
+    <sheet name="HAGADERA SCALE" sheetId="5" r:id="rId3"/>
+    <sheet name="HAGADERA SHAPE" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="108">
   <si>
     <t>BINARY</t>
   </si>
@@ -329,6 +332,21 @@
   </si>
   <si>
     <t>Ozan MSc Thesis</t>
+  </si>
+  <si>
+    <t>VSVM SL Un</t>
+  </si>
+  <si>
+    <t>AL VSVM SL</t>
+  </si>
+  <si>
+    <t>VSVM SL vUn</t>
+  </si>
+  <si>
+    <t>SVM SL Un</t>
+  </si>
+  <si>
+    <t>SVM M</t>
   </si>
 </sst>
 </file>
@@ -367,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,8 +404,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -500,11 +524,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -540,6 +584,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1533,4 +1606,1811 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="43"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="43"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="43"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="44"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="43"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="44"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="44"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="43"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="43"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="43"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:I12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="43"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="43"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="43"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="44"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="43"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="44"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="44"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="43"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="43"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="43"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="43"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="43"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="43"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="44"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="43"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="44"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="44"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="43"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="43"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="43"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>